--- a/raw_data/lab2_raw.xlsx
+++ b/raw_data/lab2_raw.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\фвьшт\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3503BA94-9C3D-4FB2-9E90-8F433841D2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B130B0-4F8C-4D9F-8827-CAE94CA5925B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{A64145A9-4557-42B7-B6B2-0864BDBFD476}"/>
   </bookViews>
@@ -534,6 +534,102 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D6DB-47B3-8A4E-2896AD5ACA73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PST prep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$L$2:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>11900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>316100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5C76-4114-B135-C2AF30F25678}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1463,6 +1559,102 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1E1B-4804-9459-251E32B3F432}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PST count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$M$2:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0865-4BA5-9A2D-48DC19E99C18}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3242,10 +3434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C27C53D-E89B-409B-B2AE-B7CC88C4CF40}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3317,6 +3509,16 @@
       <c r="K2">
         <v>1</v>
       </c>
+      <c r="L2">
+        <v>11900</v>
+      </c>
+      <c r="M2">
+        <v>975</v>
+      </c>
+      <c r="N2">
+        <f>L2+M2</f>
+        <v>12875</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3">
@@ -3346,7 +3548,17 @@
         <v>789500800</v>
       </c>
       <c r="K3">
-        <v>200</v>
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>316100</v>
+      </c>
+      <c r="M3">
+        <v>6750</v>
+      </c>
+      <c r="N3">
+        <f>L3+M3</f>
+        <v>322850</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -3377,7 +3589,7 @@
         <v>5270552400</v>
       </c>
       <c r="K4">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
@@ -3395,7 +3607,7 @@
         <v>2016810</v>
       </c>
       <c r="K5">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
@@ -3413,7 +3625,7 @@
         <v>2657930</v>
       </c>
       <c r="K6">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
@@ -3431,7 +3643,7 @@
         <v>3538210</v>
       </c>
       <c r="K7">
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
@@ -3449,7 +3661,7 @@
         <v>5093880</v>
       </c>
       <c r="K8">
-        <v>1200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
@@ -3467,7 +3679,7 @@
         <v>6151210</v>
       </c>
       <c r="K9">
-        <v>1400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
@@ -3485,7 +3697,7 @@
         <v>5999430</v>
       </c>
       <c r="K10">
-        <v>1600</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
@@ -3503,7 +3715,7 @@
         <v>7146100</v>
       </c>
       <c r="K11">
-        <v>1800</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
@@ -3521,7 +3733,7 @@
         <v>8435870</v>
       </c>
       <c r="K12">
-        <v>2000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
@@ -3539,7 +3751,7 @@
         <v>11505980</v>
       </c>
       <c r="K13">
-        <v>2200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
@@ -3557,6 +3769,11 @@
         <v>11499540</v>
       </c>
       <c r="K14">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="K15">
         <v>2400</v>
       </c>
     </row>
